--- a/_ADD_INFO/scheme.xlsx
+++ b/_ADD_INFO/scheme.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="138">
   <si>
     <t>calcPosKey</t>
   </si>
@@ -253,13 +254,197 @@
   </si>
   <si>
     <t>клик или перетаскивание мышью</t>
+  </si>
+  <si>
+    <t>Option</t>
+  </si>
+  <si>
+    <t>Defaults</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   'step'</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>vertical</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>bar</t>
+  </si>
+  <si>
+    <t>tip</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>scaleBase</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>interval</t>
+  </si>
+  <si>
+    <t>sticky</t>
+  </si>
+  <si>
+    <t>shiftOnKeyDown</t>
+  </si>
+  <si>
+    <t>shiftOnKeyHold</t>
+  </si>
+  <si>
+    <t>допустимые значения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">количество интервалов, на которое разбивается шкала. Параметр учитывается при условии, что scaleBase равен 'interval', в ином случае игнорируется </t>
+  </si>
+  <si>
+    <t>положительное число</t>
+  </si>
+  <si>
+    <t>слайдер диапазона или одиночного значения; true - диапазон; false - одиночное значение</t>
+  </si>
+  <si>
+    <t>отображение прогресс-бар; true - отображать; false - не отображать</t>
+  </si>
+  <si>
+    <t>отображение элемента-подсказки текущего значения слайдера; true - отображать; false - не отображать</t>
+  </si>
+  <si>
+    <t>отображение шкалы; true - отображать; false - не отображать</t>
+  </si>
+  <si>
+    <t>true или false</t>
+  </si>
+  <si>
+    <t>1/2 длины слайдера</t>
+  </si>
+  <si>
+    <t>количество позиций, на которое смещается ползунок при получении фокуса и одиночном нажатии на клавиатуре кнопки стрелки вперед / назад / вверх / вниз. Если scaleBase равен 'step', то одна позиция равна одному шагу; Если scaleBase равен 'interval', то одна позиция равна одному интервалу</t>
+  </si>
+  <si>
+    <t>количество позиций, на которое смещается ползунок при получении фокуса и удерживании на клавиатуре кнопки стрелки вперед / назад / вверх / вниз. Если scaleBase равен 'step', то одна позиция равна одному шагу; Если scaleBase равен 'interval', то одна позиция равна одному интервалу</t>
+  </si>
+  <si>
+    <t>тип перемещения ползунка
+'true - ползунок фиксируется только на делениях шкалы. При перемещении ползунка в положение между делениями шкалы он переместится ("прилипнет") к ближайшему делению шкалы
+'false' - ползунок фиксируется на слайдере в любом положении, выбранном пользователем</t>
+  </si>
+  <si>
+    <t xml:space="preserve">количество единиц между двумя ближайшими делениями шкалы. Желаемое значение параметра определяется исходя из общего количества единиц в шкале, котрое  равно max минус min. Длина последнего интервала будет меньше длины предыдущих, если общее количество единиц в шкале не кратно заданному значению 'step'.  Параметр учитывается при условии, что scaleBase равен 'step', в ином случае игнорируется  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">step' или 'interval'
+</t>
+  </si>
+  <si>
+    <t>вертикальный или горизонтальный вид; true - вертикальный вид; false - горизонтальный вид</t>
+  </si>
+  <si>
+    <t>способ расчета делений шкалы.  
+'step' - шкала разбивается на промежутки, равные количеству единиц, указанному в параметре 'step' либо при его отсутствии - значению по умолчанию (1/2 длины слайдера)
+'interval' - шкала разбивается на равные промежутки, количество которых указано в параметре 'interval' либо при его отсутствии - в его значении по умолчанию (2)</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>минимальное значение</t>
+  </si>
+  <si>
+    <t>максимальное значение</t>
+  </si>
+  <si>
+    <t>значение ползунка минимального значения</t>
+  </si>
+  <si>
+    <t>значение ползунка максимального значения. Параметр учитывается при range равном true, в ином случае игнорируется</t>
+  </si>
+  <si>
+    <t>число</t>
+  </si>
+  <si>
+    <t>число, должно быть больше min; в ином случае делается равным min + 10</t>
+  </si>
+  <si>
+    <t>число, должно быть больше либо равно min (в ином случае делается равным min) и
+ при range=true - меньше либо равно to (в ином случае делается равным to)
+ при range=false - меньше либо равно max (в ином случае делается равным max)</t>
+  </si>
+  <si>
+    <t>число, должно быть больше либо равно from (в ином случае делается равным from) и меньше либо равно max (в ином случае делается равным max)</t>
+  </si>
+  <si>
+    <t>onStart</t>
+  </si>
+  <si>
+    <t>onUpdate</t>
+  </si>
+  <si>
+    <t>Функция обратного вызова при изменении значения ползунка</t>
+  </si>
+  <si>
+    <t>Функция обратного вызова при инициализации слайдера</t>
+  </si>
+  <si>
+    <t>Функция обратного вызова при обращении к публичному методу Update</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Disable</t>
+  </si>
+  <si>
+    <t>Destroy</t>
+  </si>
+  <si>
+    <t>Публичные методы</t>
+  </si>
+  <si>
+    <t>function</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,8 +453,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFBF0101"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,8 +474,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -431,11 +629,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD0D0D0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD0D0D0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD0D0D0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD0D0D0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -516,6 +729,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -993,7 +1222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
@@ -1793,11 +2022,372 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="4" max="4" width="64.5546875" customWidth="1"/>
+    <col min="5" max="5" width="64.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="40">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="40">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="40">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="40">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="127.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="40">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="40">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="40">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="43" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="43" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35.44140625" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
